--- a/data/trans_dic/P2A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Provincia-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna limitación</t>
+          <t>Hogares con personas con alguna condición</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,03; 37,2</t>
+          <t>25,67; 36,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,82; 52,35</t>
+          <t>39,85; 52,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,82; 53,83</t>
+          <t>41,58; 54,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,46; 42,74</t>
+          <t>30,04; 42,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,33; 61,71</t>
+          <t>50,26; 62,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,01; 49,89</t>
+          <t>40,54; 49,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,47; 37,76</t>
+          <t>29,57; 37,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46,87; 55,46</t>
+          <t>46,83; 55,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,66; 50,32</t>
+          <t>42,45; 50,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,44; 47,53</t>
+          <t>37,95; 46,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,82; 47,86</t>
+          <t>38,3; 47,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,66; 43,13</t>
+          <t>34,43; 43,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74,73; 82,93</t>
+          <t>74,82; 83,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,7; 60,15</t>
+          <t>51,68; 60,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,89; 56,52</t>
+          <t>47,78; 56,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,93; 53,59</t>
+          <t>44,54; 53,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,85; 79,12</t>
+          <t>72,37; 79,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,38; 52,65</t>
+          <t>46,18; 52,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,48; 50,85</t>
+          <t>44,8; 51,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,66; 47,15</t>
+          <t>40,93; 47,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>74,41; 80,01</t>
+          <t>74,95; 80,38</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,95; 36,45</t>
+          <t>25,67; 36,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,76; 44,13</t>
+          <t>32,91; 43,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,18; 40,55</t>
+          <t>30,33; 40,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,43; 73,58</t>
+          <t>63,14; 73,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,6; 49,3</t>
+          <t>38,49; 48,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,63; 53,6</t>
+          <t>43,0; 54,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,22; 50,55</t>
+          <t>39,45; 50,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,15; 67,73</t>
+          <t>59,22; 67,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,61; 40,86</t>
+          <t>33,93; 41,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,39; 47,18</t>
+          <t>39,67; 47,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,08; 43,85</t>
+          <t>36,44; 44,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>62,53; 68,81</t>
+          <t>62,8; 69,39</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,54; 39,49</t>
+          <t>29,53; 39,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,65; 46,34</t>
+          <t>38,67; 46,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,45; 46,85</t>
+          <t>36,51; 46,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,62; 71,38</t>
+          <t>59,55; 71,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,99; 54,37</t>
+          <t>44,44; 54,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,66; 58,52</t>
+          <t>50,52; 58,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,03; 57,5</t>
+          <t>47,05; 57,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,63; 62,53</t>
+          <t>49,74; 62,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,33; 45,74</t>
+          <t>38,65; 45,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,8; 51,4</t>
+          <t>45,45; 51,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>42,9; 50,67</t>
+          <t>43,24; 50,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>55,83; 64,6</t>
+          <t>55,81; 64,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,34; 50,1</t>
+          <t>36,72; 49,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,86; 56,13</t>
+          <t>41,38; 56,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,87; 52,24</t>
+          <t>37,98; 51,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,27; 96,54</t>
+          <t>91,32; 96,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,15; 62,38</t>
+          <t>48,68; 62,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,54; 68,63</t>
+          <t>55,55; 68,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,45; 56,43</t>
+          <t>43,69; 56,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>90,93; 95,63</t>
+          <t>90,97; 95,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44,15; 54,25</t>
+          <t>44,42; 53,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>51,19; 60,64</t>
+          <t>50,99; 60,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42,79; 52,25</t>
+          <t>43,47; 52,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>91,83; 95,4</t>
+          <t>91,83; 95,33</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31,09; 42,61</t>
+          <t>30,68; 42,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,95; 50,19</t>
+          <t>37,81; 50,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,18; 53,56</t>
+          <t>40,88; 53,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,17; 71,25</t>
+          <t>61,35; 71,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,56; 46,41</t>
+          <t>34,88; 46,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>43,02; 55,81</t>
+          <t>42,95; 54,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,96; 64,26</t>
+          <t>52,86; 64,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>60,36; 70,14</t>
+          <t>60,95; 70,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>34,84; 42,96</t>
+          <t>35,01; 43,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>41,67; 50,6</t>
+          <t>41,87; 50,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,69; 57,38</t>
+          <t>48,55; 57,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>62,53; 69,25</t>
+          <t>62,08; 69,33</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,88; 38,68</t>
+          <t>30,82; 38,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,44; 41,01</t>
+          <t>33,26; 40,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,04; 43,25</t>
+          <t>34,98; 43,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>79,7; 86,43</t>
+          <t>79,59; 86,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,35; 51,03</t>
+          <t>43,21; 51,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,0; 52,82</t>
+          <t>44,38; 52,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>43,63; 51,73</t>
+          <t>44,13; 51,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>80,07; 89,99</t>
+          <t>80,14; 89,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>38,21; 43,95</t>
+          <t>38,09; 43,69</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>40,16; 45,48</t>
+          <t>40,45; 46,09</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40,84; 46,57</t>
+          <t>40,88; 46,53</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>81,07; 87,5</t>
+          <t>80,9; 87,5</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,72; 47,23</t>
+          <t>39,76; 47,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>36,42; 43,7</t>
+          <t>36,6; 44,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37,55; 44,94</t>
+          <t>37,74; 45,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>76,92; 84,29</t>
+          <t>76,78; 83,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50,08; 57,55</t>
+          <t>50,3; 57,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,12; 48,23</t>
+          <t>40,91; 48,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,07; 52,01</t>
+          <t>44,71; 51,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>66,87; 73,02</t>
+          <t>67,14; 73,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>46,39; 51,36</t>
+          <t>46,15; 51,34</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>39,86; 44,9</t>
+          <t>40,01; 45,34</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>42,59; 47,61</t>
+          <t>42,49; 47,71</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>73,0; 78,04</t>
+          <t>72,92; 77,69</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>36,23; 39,6</t>
+          <t>36,04; 39,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>39,35; 42,88</t>
+          <t>39,45; 42,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>39,24; 42,71</t>
+          <t>39,38; 42,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>73,57; 77,2</t>
+          <t>73,71; 77,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>47,2; 50,67</t>
+          <t>47,38; 50,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,54; 52,13</t>
+          <t>48,49; 52,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>48,39; 51,71</t>
+          <t>48,08; 51,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>69,42; 73,96</t>
+          <t>69,5; 73,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42,24; 44,68</t>
+          <t>42,26; 44,73</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>44,53; 47,02</t>
+          <t>44,46; 47,01</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>44,45; 46,9</t>
+          <t>44,4; 46,87</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>71,99; 74,82</t>
+          <t>71,95; 74,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,67; 36,44</t>
+          <t>25,13; 36,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,85; 52,5</t>
+          <t>41,0; 52,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,04; 42,29</t>
+          <t>30,25; 41,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,26; 62,07</t>
+          <t>50,1; 61,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,57; 37,96</t>
+          <t>29,85; 38,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46,83; 55,4</t>
+          <t>46,92; 55,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,95; 46,7</t>
+          <t>38,41; 47,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,3; 47,46</t>
+          <t>38,69; 48,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,43; 43,16</t>
+          <t>34,29; 43,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,68; 60,14</t>
+          <t>51,72; 60,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,78; 56,98</t>
+          <t>47,76; 56,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,54; 53,86</t>
+          <t>44,94; 53,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,18; 52,67</t>
+          <t>46,23; 52,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,8; 51,5</t>
+          <t>44,48; 50,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,93; 47,2</t>
+          <t>40,63; 47,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,67; 36,42</t>
+          <t>26,21; 36,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,91; 43,56</t>
+          <t>31,89; 42,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,33; 40,37</t>
+          <t>30,5; 40,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,49; 48,86</t>
+          <t>38,3; 48,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,0; 54,26</t>
+          <t>42,89; 53,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,45; 50,34</t>
+          <t>39,25; 50,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,93; 41,72</t>
+          <t>34,05; 41,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,67; 47,74</t>
+          <t>39,07; 46,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,44; 44,05</t>
+          <t>36,0; 44,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,53; 39,63</t>
+          <t>29,85; 39,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,67; 46,33</t>
+          <t>38,43; 46,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,51; 46,9</t>
+          <t>36,46; 46,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,44; 54,22</t>
+          <t>43,96; 54,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,52; 58,35</t>
+          <t>50,58; 58,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,05; 57,09</t>
+          <t>46,51; 57,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,65; 45,48</t>
+          <t>38,34; 45,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,45; 51,19</t>
+          <t>45,63; 51,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43,24; 50,57</t>
+          <t>43,09; 50,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,72; 49,77</t>
+          <t>36,17; 49,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,38; 56,1</t>
+          <t>42,29; 56,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,98; 51,77</t>
+          <t>38,28; 52,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,68; 62,73</t>
+          <t>48,1; 62,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,55; 68,47</t>
+          <t>55,96; 69,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,69; 56,78</t>
+          <t>43,5; 56,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44,42; 53,87</t>
+          <t>44,86; 54,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,99; 60,62</t>
+          <t>50,99; 60,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>43,47; 52,54</t>
+          <t>43,48; 52,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>30,68; 42,24</t>
+          <t>31,32; 42,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,81; 50,21</t>
+          <t>38,21; 50,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,88; 53,82</t>
+          <t>40,78; 53,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,88; 46,95</t>
+          <t>35,32; 47,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>42,95; 54,89</t>
+          <t>43,32; 55,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>52,86; 64,4</t>
+          <t>53,04; 64,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,01; 43,05</t>
+          <t>34,7; 42,99</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>41,87; 50,72</t>
+          <t>42,11; 50,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,55; 57,48</t>
+          <t>48,55; 57,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,82; 38,57</t>
+          <t>30,86; 38,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,26; 40,84</t>
+          <t>33,21; 40,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,98; 43,08</t>
+          <t>34,84; 42,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,21; 51,35</t>
+          <t>42,81; 50,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,38; 52,38</t>
+          <t>45,15; 52,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>44,13; 51,89</t>
+          <t>44,48; 51,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>38,09; 43,69</t>
+          <t>38,02; 43,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>40,45; 46,09</t>
+          <t>40,4; 46,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40,88; 46,53</t>
+          <t>40,89; 46,49</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,76; 47,13</t>
+          <t>39,89; 47,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>36,6; 44,13</t>
+          <t>36,44; 43,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37,74; 45,27</t>
+          <t>38,06; 44,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50,3; 57,41</t>
+          <t>50,17; 57,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>40,91; 48,23</t>
+          <t>41,41; 48,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>44,71; 51,93</t>
+          <t>44,54; 51,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>46,15; 51,34</t>
+          <t>46,48; 51,4</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>40,01; 45,34</t>
+          <t>39,87; 45,03</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>42,49; 47,71</t>
+          <t>42,38; 47,59</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>36,04; 39,46</t>
+          <t>36,28; 39,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>39,45; 42,71</t>
+          <t>39,48; 42,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>39,38; 42,65</t>
+          <t>39,15; 42,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>47,38; 50,8</t>
+          <t>47,28; 50,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,49; 52,02</t>
+          <t>48,61; 52,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>48,08; 51,67</t>
+          <t>48,1; 51,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42,26; 44,73</t>
+          <t>42,34; 44,87</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>44,46; 47,01</t>
+          <t>44,44; 46,93</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>44,4; 46,87</t>
+          <t>44,34; 46,73</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P2A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,13; 36,46</t>
+          <t>26,03; 37,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,0; 52,53</t>
+          <t>39,82; 52,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,58; 54,3</t>
+          <t>41,82; 53,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,25; 41,93</t>
+          <t>30,46; 42,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,1; 61,75</t>
+          <t>50,33; 61,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,54; 49,78</t>
+          <t>40,01; 49,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,85; 38,22</t>
+          <t>29,47; 37,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46,92; 55,25</t>
+          <t>46,87; 55,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,45; 50,21</t>
+          <t>42,66; 50,32</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,41; 47,62</t>
+          <t>38,44; 47,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,69; 48,29</t>
+          <t>38,82; 47,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,29; 43,09</t>
+          <t>34,66; 43,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74,82; 83,48</t>
+          <t>74,73; 82,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,72; 60,55</t>
+          <t>51,7; 60,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,76; 56,42</t>
+          <t>47,89; 56,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,94; 53,45</t>
+          <t>44,93; 53,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,37; 79,25</t>
+          <t>72,85; 79,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,23; 52,58</t>
+          <t>46,38; 52,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,48; 50,77</t>
+          <t>44,48; 50,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,63; 47,18</t>
+          <t>40,66; 47,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>74,95; 80,38</t>
+          <t>74,41; 80,01</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,21; 36,71</t>
+          <t>25,95; 36,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,89; 42,79</t>
+          <t>32,76; 44,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,5; 40,25</t>
+          <t>30,18; 40,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,14; 73,3</t>
+          <t>63,43; 73,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,3; 48,71</t>
+          <t>38,6; 49,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,89; 53,86</t>
+          <t>42,63; 53,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,25; 50,53</t>
+          <t>39,22; 50,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,22; 67,44</t>
+          <t>59,15; 67,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>34,05; 41,52</t>
+          <t>33,61; 40,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,07; 46,9</t>
+          <t>39,39; 47,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,0; 44,04</t>
+          <t>36,08; 43,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>62,8; 69,39</t>
+          <t>62,53; 68,81</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,85; 39,48</t>
+          <t>29,54; 39,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,43; 46,12</t>
+          <t>38,65; 46,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,46; 46,71</t>
+          <t>36,45; 46,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,55; 71,61</t>
+          <t>59,62; 71,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,96; 54,09</t>
+          <t>43,99; 54,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,58; 58,53</t>
+          <t>50,66; 58,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,51; 57,12</t>
+          <t>47,03; 57,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,74; 62,31</t>
+          <t>49,63; 62,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,34; 45,61</t>
+          <t>38,33; 45,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,63; 51,25</t>
+          <t>45,8; 51,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43,09; 50,94</t>
+          <t>42,9; 50,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>55,81; 64,89</t>
+          <t>55,83; 64,6</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,17; 49,83</t>
+          <t>36,34; 50,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,29; 56,41</t>
+          <t>41,86; 56,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,28; 52,36</t>
+          <t>38,87; 52,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,32; 96,69</t>
+          <t>91,27; 96,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,1; 62,18</t>
+          <t>49,15; 62,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,96; 69,26</t>
+          <t>55,54; 68,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,5; 56,98</t>
+          <t>43,45; 56,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>90,97; 95,64</t>
+          <t>90,93; 95,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44,86; 54,57</t>
+          <t>44,15; 54,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,99; 60,5</t>
+          <t>51,19; 60,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>43,48; 52,73</t>
+          <t>42,79; 52,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>91,83; 95,33</t>
+          <t>91,83; 95,4</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31,32; 42,68</t>
+          <t>31,09; 42,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,21; 50,45</t>
+          <t>37,95; 50,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,78; 53,35</t>
+          <t>41,18; 53,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,35; 71,55</t>
+          <t>61,17; 71,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,32; 47,26</t>
+          <t>34,56; 46,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>43,32; 55,12</t>
+          <t>43,02; 55,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,04; 64,2</t>
+          <t>51,96; 64,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>60,95; 70,09</t>
+          <t>60,36; 70,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>34,7; 42,99</t>
+          <t>34,84; 42,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>42,11; 50,82</t>
+          <t>41,67; 50,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,55; 57,56</t>
+          <t>48,69; 57,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>62,08; 69,33</t>
+          <t>62,53; 69,25</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,86; 38,61</t>
+          <t>30,88; 38,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,21; 40,97</t>
+          <t>33,44; 41,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,84; 42,88</t>
+          <t>35,04; 43,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>79,59; 86,51</t>
+          <t>79,7; 86,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,81; 50,75</t>
+          <t>43,35; 51,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,15; 52,92</t>
+          <t>45,0; 52,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>44,48; 51,86</t>
+          <t>43,63; 51,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>80,14; 89,82</t>
+          <t>80,07; 89,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>38,02; 43,7</t>
+          <t>38,21; 43,95</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>40,4; 46,03</t>
+          <t>40,16; 45,48</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40,89; 46,49</t>
+          <t>40,84; 46,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>80,9; 87,5</t>
+          <t>81,07; 87,5</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,89; 47,21</t>
+          <t>39,72; 47,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>36,44; 43,55</t>
+          <t>36,42; 43,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,06; 44,86</t>
+          <t>37,55; 44,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>76,78; 83,9</t>
+          <t>76,92; 84,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50,17; 57,32</t>
+          <t>50,08; 57,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,41; 48,17</t>
+          <t>41,12; 48,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>44,54; 51,68</t>
+          <t>45,07; 52,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>67,14; 73,02</t>
+          <t>66,87; 73,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>46,48; 51,4</t>
+          <t>46,39; 51,36</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>39,87; 45,03</t>
+          <t>39,86; 44,9</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>42,38; 47,59</t>
+          <t>42,59; 47,61</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>72,92; 77,69</t>
+          <t>73,0; 78,04</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>36,28; 39,59</t>
+          <t>36,23; 39,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>39,48; 42,87</t>
+          <t>39,35; 42,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>39,15; 42,67</t>
+          <t>39,24; 42,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>73,71; 77,12</t>
+          <t>73,57; 77,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>47,28; 50,71</t>
+          <t>47,2; 50,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,61; 52,09</t>
+          <t>48,54; 52,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>48,1; 51,59</t>
+          <t>48,39; 51,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>69,5; 73,74</t>
+          <t>69,42; 73,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42,34; 44,87</t>
+          <t>42,24; 44,68</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>44,44; 46,93</t>
+          <t>44,53; 47,02</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>44,34; 46,73</t>
+          <t>44,45; 46,9</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>71,95; 74,71</t>
+          <t>71,99; 74,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Provincia-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>46,38%</t>
+          <t>56,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>64,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>68,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>70,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>47,54%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>62,71%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>67,55%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,03; 37,2</t>
+          <t>37,34; 49,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,26; 66,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,82; 52,35</t>
+          <t>49,74; 62,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,82; 53,83</t>
+          <t>58,49; 70,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,46; 42,74</t>
+          <t>45,91; 58,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,55; 83,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,33; 61,71</t>
+          <t>63,6; 74,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,01; 49,89</t>
+          <t>65,34; 74,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,47; 37,76</t>
+          <t>42,95; 51,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,71; 73,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46,87; 55,46</t>
+          <t>58,82; 66,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,66; 50,32</t>
+          <t>63,53; 71,57</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>52,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>57,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>79,27%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,95%</t>
+          <t>65,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,3%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,21%</t>
+          <t>71,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
+          <t>45,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>49,38%</t>
+          <t>56,25%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>61,71%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>64,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>77,53%</t>
+          <t>42,96%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,44; 47,53</t>
+          <t>42,41; 51,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,82; 47,86</t>
+          <t>48,16; 57,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,66; 43,13</t>
+          <t>53,23; 61,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74,73; 82,93</t>
+          <t>35,08; 46,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,7; 60,15</t>
+          <t>61,32; 69,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,89; 56,52</t>
+          <t>66,02; 74,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,93; 53,59</t>
+          <t>66,84; 74,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,85; 79,12</t>
+          <t>41,69; 49,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,38; 52,65</t>
+          <t>53,23; 59,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,48; 50,85</t>
+          <t>58,43; 64,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,66; 47,15</t>
+          <t>61,49; 67,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>74,41; 80,01</t>
+          <t>39,8; 46,7</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>44,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>59,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>52,76%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,84%</t>
+          <t>48,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>68,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>68,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,81%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>51,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>37,48%</t>
+          <t>56,67%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>64,14%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>57,31%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>65,95%</t>
+          <t>50,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,95; 36,45</t>
+          <t>38,51; 50,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,76; 44,13</t>
+          <t>54,31; 65,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,18; 40,55</t>
+          <t>47,74; 58,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,43; 73,58</t>
+          <t>42,84; 54,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,6; 49,3</t>
+          <t>62,75; 73,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,63; 53,6</t>
+          <t>62,71; 73,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,22; 50,55</t>
+          <t>56,75; 67,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,15; 67,73</t>
+          <t>46,72; 55,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,61; 40,86</t>
+          <t>52,66; 60,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,39; 47,18</t>
+          <t>60,47; 67,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,08; 43,85</t>
+          <t>53,33; 61,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>62,53; 68,81</t>
+          <t>46,81; 53,65</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,48%</t>
+          <t>51,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>59,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>58,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>65,58%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,19%</t>
+          <t>69,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>71,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>52,03%</t>
+          <t>71,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>57,03%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>60,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>65,25%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>46,91%</t>
+          <t>64,93%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>42,31%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,54; 39,49</t>
+          <t>46,94; 57,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,65; 46,34</t>
+          <t>53,78; 64,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,45; 46,85</t>
+          <t>53,21; 63,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,62; 71,38</t>
+          <t>37,26; 50,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,99; 54,37</t>
+          <t>64,89; 74,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,66; 58,52</t>
+          <t>66,15; 75,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,03; 57,5</t>
+          <t>66,27; 75,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,63; 62,53</t>
+          <t>22,69; 51,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,33; 45,74</t>
+          <t>57,32; 64,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,8; 51,4</t>
+          <t>61,72; 68,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>42,9; 50,67</t>
+          <t>61,23; 68,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>55,83; 64,6</t>
+          <t>30,98; 48,97</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>49,81%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,25%</t>
+          <t>56,35%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>52,71%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55,72%</t>
+          <t>65,9%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>62,32%</t>
+          <t>82,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>50,16%</t>
+          <t>64,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>57,94%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>69,54%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>47,75%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>14,16%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,34; 50,1</t>
+          <t>43,36; 57,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,86; 56,13</t>
+          <t>49,24; 63,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,87; 52,24</t>
+          <t>46,04; 59,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,27; 96,54</t>
+          <t>9,63; 17,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,15; 62,38</t>
+          <t>59,16; 72,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,54; 68,63</t>
+          <t>76,67; 86,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,45; 56,43</t>
+          <t>58,32; 71,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>90,93; 95,63</t>
+          <t>8,16; 19,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44,15; 54,25</t>
+          <t>52,78; 62,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>51,19; 60,64</t>
+          <t>64,67; 73,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42,79; 52,25</t>
+          <t>53,55; 62,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>91,83; 95,4</t>
+          <t>9,66; 17,25</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>62,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>66,42%</t>
+          <t>57,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>64,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>49,19%</t>
+          <t>77,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>58,7%</t>
+          <t>61,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>65,54%</t>
+          <t>57,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>38,72%</t>
+          <t>57,78%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>46,46%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>53,02%</t>
+          <t>55,86%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>65,98%</t>
+          <t>57,48%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31,09; 42,61</t>
+          <t>45,03; 56,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,95; 50,19</t>
+          <t>57,07; 69,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,18; 53,56</t>
+          <t>43,44; 55,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,17; 71,25</t>
+          <t>51,82; 62,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,56; 46,41</t>
+          <t>58,4; 69,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>43,02; 55,81</t>
+          <t>71,99; 82,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,96; 64,26</t>
+          <t>54,98; 67,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>60,36; 70,14</t>
+          <t>52,45; 62,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>34,84; 42,96</t>
+          <t>53,61; 62,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>41,67; 50,6</t>
+          <t>65,55; 73,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,69; 57,38</t>
+          <t>51,6; 60,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>62,53; 69,25</t>
+          <t>53,86; 61,29</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,48%</t>
+          <t>45,63%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>37,24%</t>
+          <t>57,92%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>83,28%</t>
+          <t>33,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>61,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>48,79%</t>
+          <t>68,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>48,12%</t>
+          <t>56,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>83,77%</t>
+          <t>53,8%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>40,83%</t>
+          <t>53,65%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>63,43%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>43,59%</t>
+          <t>50,71%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>45,03%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,88; 38,68</t>
+          <t>41,11; 49,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,44; 41,01</t>
+          <t>53,68; 61,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,04; 43,25</t>
+          <t>40,8; 48,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>79,7; 86,43</t>
+          <t>29,26; 37,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,35; 51,03</t>
+          <t>57,4; 65,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,0; 52,82</t>
+          <t>65,4; 72,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>43,63; 51,73</t>
+          <t>52,46; 60,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>80,07; 89,99</t>
+          <t>38,1; 77,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>38,21; 43,95</t>
+          <t>50,72; 56,54</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>40,16; 45,48</t>
+          <t>60,6; 65,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40,84; 46,57</t>
+          <t>47,91; 53,32</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>81,07; 87,5</t>
+          <t>35,28; 65,52</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>43,48%</t>
+          <t>51,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>40,22%</t>
+          <t>47,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>41,33%</t>
+          <t>51,22%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>80,09%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>53,94%</t>
+          <t>63,29%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>58,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>48,32%</t>
+          <t>61,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>70,28%</t>
+          <t>45,14%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>48,85%</t>
+          <t>57,43%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>53,28%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>44,93%</t>
+          <t>56,32%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>75,16%</t>
+          <t>33,61%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,72; 47,23</t>
+          <t>47,48; 55,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>36,42; 43,7</t>
+          <t>43,74; 51,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37,55; 44,94</t>
+          <t>47,35; 54,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>76,92; 84,29</t>
+          <t>11,54; 34,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50,08; 57,55</t>
+          <t>59,46; 66,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,12; 48,23</t>
+          <t>55,38; 62,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,07; 52,01</t>
+          <t>57,36; 64,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>66,87; 73,02</t>
+          <t>42,35; 48,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>46,39; 51,36</t>
+          <t>54,8; 59,91</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>39,86; 44,9</t>
+          <t>50,68; 55,54</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>42,59; 47,61</t>
+          <t>53,88; 58,66</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>73,0; 78,04</t>
+          <t>20,81; 40,34</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>52,22%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>75,35%</t>
+          <t>38,12%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>49,04%</t>
+          <t>63,83%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>50,26%</t>
+          <t>69,19%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>63,74%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>71,19%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>56,11%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>45,61%</t>
+          <t>58,11%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>73,14%</t>
+          <t>43,19%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>36,23; 39,6</t>
+          <t>46,5; 50,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>39,35; 42,88</t>
+          <t>53,81; 57,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>39,24; 42,71</t>
+          <t>50,34; 53,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>73,57; 77,2</t>
+          <t>29,17; 41,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>47,2; 50,67</t>
+          <t>62,11; 65,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,54; 52,13</t>
+          <t>67,48; 70,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>48,39; 51,71</t>
+          <t>62,08; 65,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>69,42; 73,96</t>
+          <t>43,9; 56,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42,24; 44,68</t>
+          <t>54,84; 57,32</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>44,53; 47,02</t>
+          <t>61,34; 63,73</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>44,45; 46,9</t>
+          <t>56,89; 59,25</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>71,99; 74,82</t>
+          <t>39,11; 47,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,34; 49,32</t>
+          <t>36,95; 48,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,26; 66,67</t>
+          <t>54,92; 66,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,74; 62,16</t>
+          <t>50,66; 62,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58,49; 70,93</t>
+          <t>58,51; 70,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,91; 58,47</t>
+          <t>45,92; 58,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,55; 83,27</t>
+          <t>73,43; 83,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>63,6; 74,7</t>
+          <t>63,32; 73,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>65,34; 74,8</t>
+          <t>66,03; 74,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>42,95; 51,74</t>
+          <t>42,85; 51,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65,71; 73,42</t>
+          <t>65,43; 73,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>58,82; 66,75</t>
+          <t>58,94; 67,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>63,53; 71,57</t>
+          <t>63,57; 71,54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,41; 51,6</t>
+          <t>42,19; 51,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,16; 57,26</t>
+          <t>48,15; 57,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,23; 61,94</t>
+          <t>52,74; 62,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,08; 46,03</t>
+          <t>35,26; 46,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,32; 69,69</t>
+          <t>61,31; 69,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,02; 74,3</t>
+          <t>65,78; 74,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,84; 74,71</t>
+          <t>66,88; 75,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,69; 49,44</t>
+          <t>42,1; 49,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,23; 59,44</t>
+          <t>53,31; 59,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,43; 64,82</t>
+          <t>58,47; 65,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>61,49; 67,69</t>
+          <t>61,43; 67,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,8; 46,7</t>
+          <t>39,42; 46,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,51; 50,36</t>
+          <t>39,09; 50,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,31; 65,33</t>
+          <t>53,04; 64,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>47,74; 58,54</t>
+          <t>47,66; 57,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42,84; 54,3</t>
+          <t>43,02; 54,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,75; 73,07</t>
+          <t>62,65; 73,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,71; 73,49</t>
+          <t>62,79; 73,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>56,75; 67,39</t>
+          <t>55,62; 66,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,72; 55,73</t>
+          <t>46,62; 55,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>52,66; 60,52</t>
+          <t>52,68; 60,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>60,47; 67,93</t>
+          <t>60,35; 68,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>53,33; 61,03</t>
+          <t>53,65; 61,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>46,81; 53,65</t>
+          <t>46,56; 53,6</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,94; 57,11</t>
+          <t>46,62; 57,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,78; 64,14</t>
+          <t>53,43; 64,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,21; 63,65</t>
+          <t>53,52; 63,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,26; 50,54</t>
+          <t>38,18; 51,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,89; 74,19</t>
+          <t>64,87; 74,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,15; 75,54</t>
+          <t>66,72; 75,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,27; 75,78</t>
+          <t>66,48; 75,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,69; 51,07</t>
+          <t>24,32; 51,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57,32; 64,72</t>
+          <t>57,42; 64,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61,72; 68,72</t>
+          <t>61,55; 68,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>61,23; 68,44</t>
+          <t>61,14; 68,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,98; 48,97</t>
+          <t>30,84; 49,01</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,36; 57,42</t>
+          <t>42,68; 56,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,24; 63,12</t>
+          <t>49,52; 63,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,04; 59,94</t>
+          <t>45,67; 59,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,63; 17,37</t>
+          <t>9,52; 17,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,16; 72,07</t>
+          <t>58,66; 72,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>76,67; 86,8</t>
+          <t>77,07; 86,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>58,32; 71,11</t>
+          <t>57,88; 70,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,16; 19,66</t>
+          <t>7,89; 19,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52,78; 62,76</t>
+          <t>52,6; 62,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>64,67; 73,93</t>
+          <t>65,3; 73,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53,55; 62,84</t>
+          <t>53,93; 63,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,66; 17,25</t>
+          <t>9,54; 17,23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,03; 56,62</t>
+          <t>44,72; 56,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>57,07; 69,36</t>
+          <t>56,41; 68,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>43,44; 55,78</t>
+          <t>43,44; 56,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>51,82; 62,62</t>
+          <t>51,47; 62,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>58,4; 69,75</t>
+          <t>58,3; 70,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>71,99; 82,21</t>
+          <t>72,21; 82,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>54,98; 67,22</t>
+          <t>55,68; 67,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>52,45; 62,34</t>
+          <t>52,39; 62,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>53,61; 62,05</t>
+          <t>53,78; 62,24</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>65,55; 73,83</t>
+          <t>66,07; 74,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>51,6; 60,09</t>
+          <t>51,69; 60,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>53,86; 61,29</t>
+          <t>53,96; 61,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>41,11; 49,6</t>
+          <t>41,33; 49,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>53,68; 61,86</t>
+          <t>53,49; 61,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>40,8; 48,57</t>
+          <t>40,48; 49,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,26; 37,53</t>
+          <t>28,88; 37,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>57,4; 65,15</t>
+          <t>58,05; 65,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>65,4; 72,58</t>
+          <t>64,78; 72,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>52,46; 60,34</t>
+          <t>52,87; 60,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>38,1; 77,45</t>
+          <t>37,86; 74,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>50,72; 56,54</t>
+          <t>50,8; 56,85</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>60,6; 65,73</t>
+          <t>60,84; 66,24</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>47,91; 53,32</t>
+          <t>47,9; 53,83</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>35,28; 65,52</t>
+          <t>35,54; 66,65</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>47,48; 55,2</t>
+          <t>47,77; 55,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,74; 51,2</t>
+          <t>43,69; 51,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,35; 54,97</t>
+          <t>47,97; 54,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,54; 34,58</t>
+          <t>10,98; 34,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,46; 66,75</t>
+          <t>59,95; 66,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>55,38; 62,21</t>
+          <t>55,17; 62,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,36; 64,58</t>
+          <t>57,79; 64,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>42,35; 48,51</t>
+          <t>41,78; 48,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>54,8; 59,91</t>
+          <t>54,95; 60,08</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>50,68; 55,54</t>
+          <t>50,87; 56,01</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>53,88; 58,66</t>
+          <t>54,07; 58,91</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>20,81; 40,34</t>
+          <t>20,66; 40,22</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>46,5; 50,03</t>
+          <t>46,39; 50,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>53,81; 57,5</t>
+          <t>53,97; 57,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>50,34; 53,93</t>
+          <t>50,46; 54,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>29,17; 41,77</t>
+          <t>30,22; 41,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>62,11; 65,44</t>
+          <t>62,17; 65,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>67,48; 70,74</t>
+          <t>67,55; 70,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>62,08; 65,28</t>
+          <t>62,12; 65,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>43,9; 56,44</t>
+          <t>44,17; 58,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>54,84; 57,32</t>
+          <t>54,87; 57,41</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>61,34; 63,73</t>
+          <t>61,35; 63,74</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>56,89; 59,25</t>
+          <t>56,91; 59,33</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>39,11; 47,77</t>
+          <t>39,27; 48,31</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>117659</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>180256</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>166455</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>201413</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>136144</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>225233</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>198810</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>204585</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>253803</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>405489</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>365265</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>405997</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>100887; 133644</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>161880; 196639</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>148806; 184454</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>182235; 220788</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>119788; 152581</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>210924; 239520</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>182796; 213246</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>191234; 216126</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>228735; 277200</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>380820; 426898</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>343331; 391090</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>382105; 430001</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>230589</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>267013</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>289108</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>209116</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>330257</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>368122</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>371835</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>234843</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>560845</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>635135</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>660943</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>443959</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>208036; 251658</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>243428; 292439</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>265080; 311997</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>182810; 239029</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>308974; 350884</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>344534; 388920</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>349832; 392340</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>216796; 256500</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>531532; 591631</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>601793; 670152</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>630108; 691916</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>407324; 477595</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>142433</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>192586</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>168067</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>154192</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>228366</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>233986</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>207240</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>178378</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>370799</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>426572</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>375307</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>332569</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>124645; 160024</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>171872; 208827</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>151825; 184234</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>135963; 171711</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>210147; 245189</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>214126; 250052</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>187049; 223280</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>162748; 195022</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>344685; 395700</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>401395; 452247</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>351341; 400950</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>309735; 356503</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>186074</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>221107</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>215750</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>139789</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>258329</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>276695</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>275965</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>193728</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>444403</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>497802</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>491715</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>333516</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>167195; 206839</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>199818; 239794</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>198023; 234397</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>119321; 162324</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>240960; 277355</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>259504; 294440</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>257448; 293493</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>115696; 243908</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>419244; 470708</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>469575; 523689</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>463002; 516493</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>243085; 386320</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>101272</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>119803</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>111331</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23279</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>136854</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>180758</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>140436</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>38655</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>238126</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>300562</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>251767</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>61934</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>86767; 114843</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>105286; 134787</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>96460; 126195</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17011; 31179</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>121819; 149655</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>169240; 190859</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>126510; 154204</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20405; 50076</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>216155; 257031</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>282244; 319435</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>231795; 271705</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>41729; 75380</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>137685</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>171526</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>130287</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>155020</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>179524</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>217152</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>169278</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>147720</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>317210</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>388678</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>299565</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>302741</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>121104; 153717</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>154564; 188653</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>114309; 147689</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>138780; 169115</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>162153; 194944</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>202212; 230049</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>152067; 184219</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>134668; 159944</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>295246; 341664</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>366035; 410185</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>277205; 323288</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>284223; 323465</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>280644</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>383905</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>292860</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>206602</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>391723</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>476644</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>390700</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>456895</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>672367</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>860548</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>683560</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>663497</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>254160; 306352</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>354532; 408884</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>265799; 322522</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>180304; 235440</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>370468; 417567</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>449463; 503226</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>365494; 419435</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>321544; 634828</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>636636; 712527</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>825445; 898623</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>645652; 725579</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>523696; 982054</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>381308</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>370754</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>398776</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>229364</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>495848</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>483232</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>505072</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>324014</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>877156</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>853987</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>903848</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>553378</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>355303; 411049</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>340412; 402278</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>373470; 427455</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>101941; 321602</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>469728; 523918</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>454511; 512169</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>477427; 533370</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>299841; 347069</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>839196; 917622</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>815487; 897776</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>867657; 945322</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>340114; 662278</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1574</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1774</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1706</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1494</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2273</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2068</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3682</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>3774</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>4194</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1577663</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1906951</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1772634</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1318774</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>2157045</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2461823</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2259337</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1778817</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>3734709</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>4368774</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>4031970</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>3097592</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1519872; 1638673</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1849476; 1968067</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1712701; 1832928</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1045718; 1448031</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2100896; 2222608</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2403543; 2519341</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2202021; 2314803</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1639887; 2155738</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>3652324; 3821214</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>4285196; 4452118</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>3949120; 4116959</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2816485; 3464703</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>